--- a/Data/PerformanceResultsMetcons.xlsx
+++ b/Data/PerformanceResultsMetcons.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07EB5C7D-BF89-4894-BF7B-CC63B15F35A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$257</definedName>
+  </definedNames>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3414,7 +3421,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -3510,7 +3517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3562,7 +3569,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3787,16 +3794,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3834,7 +3846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="24" hidden="1">
       <c r="A2" s="1">
         <v>43305</v>
       </c>
@@ -3872,7 +3884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="48">
       <c r="A3" s="1">
         <v>43298</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="72" hidden="1">
       <c r="A4" s="1">
         <v>43283</v>
       </c>
@@ -3948,7 +3960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="48" hidden="1">
       <c r="A5" s="1">
         <v>43262</v>
       </c>
@@ -3986,7 +3998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="72" hidden="1">
       <c r="A6" s="1">
         <v>43256</v>
       </c>
@@ -4024,7 +4036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="120" hidden="1">
       <c r="A7" s="1">
         <v>43255</v>
       </c>
@@ -4062,7 +4074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="96">
       <c r="A8" s="1">
         <v>43252</v>
       </c>
@@ -4100,7 +4112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="84">
       <c r="A9" s="1">
         <v>43215</v>
       </c>
@@ -4138,7 +4150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="132">
       <c r="A10" s="1">
         <v>43214</v>
       </c>
@@ -4176,7 +4188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="60">
       <c r="A11" s="1">
         <v>43213</v>
       </c>
@@ -4214,7 +4226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="60" hidden="1">
       <c r="A12" s="1">
         <v>43207</v>
       </c>
@@ -4252,7 +4264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="72" hidden="1">
       <c r="A13" s="1">
         <v>43207</v>
       </c>
@@ -4290,7 +4302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="24" hidden="1">
       <c r="A14" s="1">
         <v>43206</v>
       </c>
@@ -4328,7 +4340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="72" hidden="1">
       <c r="A15" s="1">
         <v>43193</v>
       </c>
@@ -4366,7 +4378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="60" hidden="1">
       <c r="A16" s="1">
         <v>43186</v>
       </c>
@@ -4404,7 +4416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="228" hidden="1">
       <c r="A17" s="1">
         <v>43179</v>
       </c>
@@ -4442,7 +4454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="60" hidden="1">
       <c r="A18" s="1">
         <v>43173</v>
       </c>
@@ -4480,7 +4492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="60">
       <c r="A19" s="1">
         <v>43173</v>
       </c>
@@ -4518,7 +4530,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="72">
       <c r="A20" s="1">
         <v>43154</v>
       </c>
@@ -4556,7 +4568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="409">
       <c r="A21" s="1">
         <v>43145</v>
       </c>
@@ -4594,7 +4606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="36" hidden="1">
       <c r="A22" s="1">
         <v>43143</v>
       </c>
@@ -4632,7 +4644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>43123</v>
       </c>
@@ -4670,7 +4682,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="96" hidden="1">
       <c r="A24" s="1">
         <v>43119</v>
       </c>
@@ -4708,7 +4720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="48">
       <c r="A25" s="1">
         <v>43116</v>
       </c>
@@ -4746,7 +4758,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="24" hidden="1">
       <c r="A26" s="1">
         <v>43115</v>
       </c>
@@ -4784,7 +4796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="36">
       <c r="A27" s="1">
         <v>43109</v>
       </c>
@@ -4822,7 +4834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="48">
       <c r="A28" s="1">
         <v>43103</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="36">
       <c r="A29" s="1">
         <v>43102</v>
       </c>
@@ -4898,7 +4910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" s="1">
         <v>43102</v>
       </c>
@@ -4936,7 +4948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="48" hidden="1">
       <c r="A31" s="1">
         <v>43101</v>
       </c>
@@ -4974,7 +4986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="120" hidden="1">
       <c r="A32" s="1">
         <v>43084</v>
       </c>
@@ -5012,7 +5024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="48" hidden="1">
       <c r="A33" s="1">
         <v>43081</v>
       </c>
@@ -5050,7 +5062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="84" hidden="1">
       <c r="A34" s="1">
         <v>43080</v>
       </c>
@@ -5088,7 +5100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="24" hidden="1">
       <c r="A35" s="1">
         <v>43080</v>
       </c>
@@ -5126,7 +5138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="168" hidden="1">
       <c r="A36" s="1">
         <v>43077</v>
       </c>
@@ -5164,7 +5176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37" s="1">
         <v>43075</v>
       </c>
@@ -5202,7 +5214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="84" hidden="1">
       <c r="A38" s="1">
         <v>43074</v>
       </c>
@@ -5240,7 +5252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="24" hidden="1">
       <c r="A39" s="1">
         <v>43074</v>
       </c>
@@ -5278,7 +5290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40" s="1">
         <v>43074</v>
       </c>
@@ -5316,7 +5328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="84" hidden="1">
       <c r="A41" s="1">
         <v>43070</v>
       </c>
@@ -5354,7 +5366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="36" hidden="1">
       <c r="A42" s="1">
         <v>43068</v>
       </c>
@@ -5392,7 +5404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="36">
       <c r="A43" s="1">
         <v>43067</v>
       </c>
@@ -5430,7 +5442,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="72">
       <c r="A44" s="1">
         <v>43066</v>
       </c>
@@ -5468,7 +5480,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="36" hidden="1">
       <c r="A45" s="1">
         <v>43063</v>
       </c>
@@ -5506,7 +5518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="36" hidden="1">
       <c r="A46" s="1">
         <v>43060</v>
       </c>
@@ -5544,7 +5556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="36" hidden="1">
       <c r="A47" s="1">
         <v>43060</v>
       </c>
@@ -5582,7 +5594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="48" hidden="1">
       <c r="A48" s="1">
         <v>43059</v>
       </c>
@@ -5620,7 +5632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="60">
       <c r="A49" s="1">
         <v>43056</v>
       </c>
@@ -5658,7 +5670,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="96" hidden="1">
       <c r="A50" s="1">
         <v>43046</v>
       </c>
@@ -5696,7 +5708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="192" hidden="1">
       <c r="A51" s="1">
         <v>43040</v>
       </c>
@@ -5734,7 +5746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="48">
       <c r="A52" s="1">
         <v>43021</v>
       </c>
@@ -5772,7 +5784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="96" hidden="1">
       <c r="A53" s="1">
         <v>43018</v>
       </c>
@@ -5810,7 +5822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="48">
       <c r="A54" s="1">
         <v>43017</v>
       </c>
@@ -5848,7 +5860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="24">
       <c r="A55" s="1">
         <v>43017</v>
       </c>
@@ -5886,7 +5898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="108" hidden="1">
       <c r="A56" s="1">
         <v>43005</v>
       </c>
@@ -5924,7 +5936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="96" hidden="1">
       <c r="A57" s="1">
         <v>43003</v>
       </c>
@@ -5962,7 +5974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="60" hidden="1">
       <c r="A58" s="1">
         <v>42998</v>
       </c>
@@ -6000,7 +6012,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="192" hidden="1">
       <c r="A59" s="1">
         <v>42989</v>
       </c>
@@ -6038,7 +6050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="60">
       <c r="A60" s="1">
         <v>42984</v>
       </c>
@@ -6076,7 +6088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="36" hidden="1">
       <c r="A61" s="1">
         <v>42984</v>
       </c>
@@ -6114,7 +6126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="120">
       <c r="A62" s="1">
         <v>42983</v>
       </c>
@@ -6152,7 +6164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="84">
       <c r="A63" s="1">
         <v>42979</v>
       </c>
@@ -6190,7 +6202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="36" hidden="1">
       <c r="A64" s="1">
         <v>42979</v>
       </c>
@@ -6228,7 +6240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="357" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="180" hidden="1">
       <c r="A65" s="1">
         <v>42977</v>
       </c>
@@ -6266,7 +6278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="48" hidden="1">
       <c r="A66" s="1">
         <v>42972</v>
       </c>
@@ -6304,7 +6316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="72" hidden="1">
       <c r="A67" s="1">
         <v>42970</v>
       </c>
@@ -6342,7 +6354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="60" hidden="1">
       <c r="A68" s="1">
         <v>42969</v>
       </c>
@@ -6380,7 +6392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="72">
       <c r="A69" s="1">
         <v>42969</v>
       </c>
@@ -6418,7 +6430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="84" hidden="1">
       <c r="A70" s="1">
         <v>42961</v>
       </c>
@@ -6456,7 +6468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="60" hidden="1">
       <c r="A71" s="1">
         <v>42954</v>
       </c>
@@ -6494,7 +6506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="72" hidden="1">
       <c r="A72" s="1">
         <v>42954</v>
       </c>
@@ -6532,7 +6544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="60">
       <c r="A73" s="1">
         <v>42951</v>
       </c>
@@ -6570,7 +6582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="72">
       <c r="A74" s="1">
         <v>42949</v>
       </c>
@@ -6608,7 +6620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="132" hidden="1">
       <c r="A75" s="1">
         <v>42948</v>
       </c>
@@ -6646,7 +6658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="168" hidden="1">
       <c r="A76" s="1">
         <v>42944</v>
       </c>
@@ -6684,7 +6696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="96" hidden="1">
       <c r="A77" s="1">
         <v>42942</v>
       </c>
@@ -6722,7 +6734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="60" hidden="1">
       <c r="A78" s="1">
         <v>42937</v>
       </c>
@@ -6760,7 +6772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="84" hidden="1">
       <c r="A79" s="1">
         <v>42935</v>
       </c>
@@ -6798,7 +6810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="72" hidden="1">
       <c r="A80" s="1">
         <v>42933</v>
       </c>
@@ -6836,7 +6848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="36" hidden="1">
       <c r="A81" s="1">
         <v>42930</v>
       </c>
@@ -6874,7 +6886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="72">
       <c r="A82" s="1">
         <v>42928</v>
       </c>
@@ -6912,7 +6924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="84" hidden="1">
       <c r="A83" s="1">
         <v>42926</v>
       </c>
@@ -6950,7 +6962,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="84" hidden="1">
       <c r="A84" s="1">
         <v>42921</v>
       </c>
@@ -6988,7 +7000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="48">
       <c r="A85" s="1">
         <v>42916</v>
       </c>
@@ -7026,7 +7038,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="84">
       <c r="A86" s="1">
         <v>42913</v>
       </c>
@@ -7064,7 +7076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="357" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="132" hidden="1">
       <c r="A87" s="1">
         <v>42912</v>
       </c>
@@ -7102,7 +7114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="72" hidden="1">
       <c r="A88" s="1">
         <v>42909</v>
       </c>
@@ -7140,7 +7152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="48" hidden="1">
       <c r="A89" s="1">
         <v>42907</v>
       </c>
@@ -7178,7 +7190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="120" hidden="1">
       <c r="A90" s="1">
         <v>42905</v>
       </c>
@@ -7216,7 +7228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="48">
       <c r="A91" s="1">
         <v>42902</v>
       </c>
@@ -7254,7 +7266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="48" hidden="1">
       <c r="A92" s="1">
         <v>42900</v>
       </c>
@@ -7292,7 +7304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="84">
       <c r="A93" s="1">
         <v>42899</v>
       </c>
@@ -7330,7 +7342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="108" hidden="1">
       <c r="A94" s="1">
         <v>42898</v>
       </c>
@@ -7368,7 +7380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="48" hidden="1">
       <c r="A95" s="1">
         <v>42895</v>
       </c>
@@ -7406,7 +7418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="60" hidden="1">
       <c r="A96" s="1">
         <v>42893</v>
       </c>
@@ -7444,7 +7456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="72" hidden="1">
       <c r="A97" s="1">
         <v>42886</v>
       </c>
@@ -7482,7 +7494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="252" hidden="1">
       <c r="A98" s="1">
         <v>42879</v>
       </c>
@@ -7520,7 +7532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="84" hidden="1">
       <c r="A99" s="1">
         <v>42877</v>
       </c>
@@ -7558,7 +7570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="60" hidden="1">
       <c r="A100" s="1">
         <v>42870</v>
       </c>
@@ -7596,7 +7608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="48">
       <c r="A101" s="1">
         <v>42856</v>
       </c>
@@ -7634,7 +7646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="216">
       <c r="A102" s="1">
         <v>42853</v>
       </c>
@@ -7672,7 +7684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="120">
       <c r="A103" s="1">
         <v>42851</v>
       </c>
@@ -7710,7 +7722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="168" hidden="1">
       <c r="A104" s="1">
         <v>42850</v>
       </c>
@@ -7748,7 +7760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="36" hidden="1">
       <c r="A105" s="1">
         <v>42843</v>
       </c>
@@ -7786,7 +7798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="48" hidden="1">
       <c r="A106" s="1">
         <v>42842</v>
       </c>
@@ -7824,7 +7836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1">
       <c r="A107" s="1">
         <v>42839</v>
       </c>
@@ -7862,7 +7874,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1">
       <c r="A108" s="1">
         <v>42839</v>
       </c>
@@ -7900,7 +7912,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1">
       <c r="A109" s="1">
         <v>42839</v>
       </c>
@@ -7938,7 +7950,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="48" hidden="1">
       <c r="A110" s="1">
         <v>42835</v>
       </c>
@@ -7976,7 +7988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="60">
       <c r="A111" s="1">
         <v>42830</v>
       </c>
@@ -8014,7 +8026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="120" hidden="1">
       <c r="A112" s="1">
         <v>42828</v>
       </c>
@@ -8052,7 +8064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="24" hidden="1">
       <c r="A113" s="1">
         <v>42822</v>
       </c>
@@ -8090,7 +8102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="192" hidden="1">
       <c r="A114" s="1">
         <v>42790</v>
       </c>
@@ -8128,7 +8140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="108">
       <c r="A115" s="1">
         <v>42788</v>
       </c>
@@ -8166,7 +8178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="132" hidden="1">
       <c r="A116" s="1">
         <v>42787</v>
       </c>
@@ -8204,7 +8216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="252">
       <c r="A117" s="1">
         <v>42784</v>
       </c>
@@ -8242,7 +8254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="36">
       <c r="A118" s="1">
         <v>42767</v>
       </c>
@@ -8280,7 +8292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="264" hidden="1">
       <c r="A119" s="1">
         <v>42766</v>
       </c>
@@ -8318,7 +8330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="60" hidden="1">
       <c r="A120" s="1">
         <v>42765</v>
       </c>
@@ -8356,7 +8368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="48">
       <c r="A121" s="1">
         <v>42751</v>
       </c>
@@ -8394,7 +8406,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="36" hidden="1">
       <c r="A122" s="1">
         <v>42746</v>
       </c>
@@ -8432,7 +8444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="72">
       <c r="A123" s="1">
         <v>42724</v>
       </c>
@@ -8470,7 +8482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="300" hidden="1">
       <c r="A124" s="1">
         <v>42723</v>
       </c>
@@ -8508,7 +8520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" hidden="1">
       <c r="A125" s="1">
         <v>42696</v>
       </c>
@@ -8546,7 +8558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="96" hidden="1">
       <c r="A126" s="1">
         <v>42678</v>
       </c>
@@ -8584,7 +8596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="264" hidden="1">
       <c r="A127" s="1">
         <v>42675</v>
       </c>
@@ -8622,7 +8634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="192" hidden="1">
       <c r="A128" s="1">
         <v>42668</v>
       </c>
@@ -8660,7 +8672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="306" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="132">
       <c r="A129" s="1">
         <v>42664</v>
       </c>
@@ -8698,7 +8710,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="168" hidden="1">
       <c r="A130" s="1">
         <v>42662</v>
       </c>
@@ -8736,7 +8748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1">
       <c r="A131" s="1">
         <v>42662</v>
       </c>
@@ -8774,7 +8786,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="336" hidden="1">
       <c r="A132" s="1">
         <v>42661</v>
       </c>
@@ -8812,7 +8824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="216" hidden="1">
       <c r="A133" s="1">
         <v>42655</v>
       </c>
@@ -8850,7 +8862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="293.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="108" hidden="1">
       <c r="A134" s="1">
         <v>42641</v>
       </c>
@@ -8888,7 +8900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="156" hidden="1">
       <c r="A135" s="1">
         <v>42640</v>
       </c>
@@ -8926,7 +8938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="48">
       <c r="A136" s="1">
         <v>42636</v>
       </c>
@@ -8964,7 +8976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="409" hidden="1">
       <c r="A137" s="1">
         <v>42626</v>
       </c>
@@ -9002,7 +9014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="156" hidden="1">
       <c r="A138" s="1">
         <v>42620</v>
       </c>
@@ -9040,7 +9052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="180" hidden="1">
       <c r="A139" s="1">
         <v>42619</v>
       </c>
@@ -9078,7 +9090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="132">
       <c r="A140" s="1">
         <v>42613</v>
       </c>
@@ -9116,7 +9128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="409" hidden="1">
       <c r="A141" s="1">
         <v>42612</v>
       </c>
@@ -9154,7 +9166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="216" hidden="1">
       <c r="A142" s="1">
         <v>42611</v>
       </c>
@@ -9192,7 +9204,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="180" hidden="1">
       <c r="A143" s="1">
         <v>42606</v>
       </c>
@@ -9230,7 +9242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="180" hidden="1">
       <c r="A144" s="1">
         <v>42606</v>
       </c>
@@ -9268,7 +9280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="180" hidden="1">
       <c r="A145" s="1">
         <v>42606</v>
       </c>
@@ -9306,7 +9318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="72" hidden="1">
       <c r="A146" s="1">
         <v>42606</v>
       </c>
@@ -9344,7 +9356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="132">
       <c r="A147" s="1">
         <v>42605</v>
       </c>
@@ -9382,7 +9394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="60">
       <c r="A148" s="1">
         <v>42601</v>
       </c>
@@ -9420,7 +9432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="120" hidden="1">
       <c r="A149" s="1">
         <v>42598</v>
       </c>
@@ -9458,7 +9470,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="96" hidden="1">
       <c r="A150" s="1">
         <v>42597</v>
       </c>
@@ -9496,7 +9508,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="306" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="108" hidden="1">
       <c r="A151" s="1">
         <v>42594</v>
       </c>
@@ -9534,7 +9546,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="96" hidden="1">
       <c r="A152" s="1">
         <v>42592</v>
       </c>
@@ -9572,7 +9584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="108" hidden="1">
       <c r="A153" s="1">
         <v>42591</v>
       </c>
@@ -9610,7 +9622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="48" hidden="1">
       <c r="A154" s="1">
         <v>42591</v>
       </c>
@@ -9648,7 +9660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="72">
       <c r="A155" s="1">
         <v>42590</v>
       </c>
@@ -9686,7 +9698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="293.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="84" hidden="1">
       <c r="A156" s="1">
         <v>42587</v>
       </c>
@@ -9724,7 +9736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="96" hidden="1">
       <c r="A157" s="1">
         <v>42584</v>
       </c>
@@ -9762,7 +9774,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" ht="96" hidden="1">
       <c r="A158" s="1">
         <v>42583</v>
       </c>
@@ -9800,7 +9812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="192" hidden="1">
       <c r="A159" s="1">
         <v>42580</v>
       </c>
@@ -9838,7 +9850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12">
       <c r="A160" s="1">
         <v>42578</v>
       </c>
@@ -9876,7 +9888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="72" hidden="1">
       <c r="A161" s="1">
         <v>42578</v>
       </c>
@@ -9914,7 +9926,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="72" hidden="1">
       <c r="A162" s="1">
         <v>42576</v>
       </c>
@@ -9952,7 +9964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="96" hidden="1">
       <c r="A163" s="1">
         <v>42576</v>
       </c>
@@ -9990,7 +10002,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="48" hidden="1">
       <c r="A164" s="1">
         <v>42570</v>
       </c>
@@ -10028,7 +10040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" ht="48" hidden="1">
       <c r="A165" s="1">
         <v>42569</v>
       </c>
@@ -10066,7 +10078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="108" hidden="1">
       <c r="A166" s="1">
         <v>42566</v>
       </c>
@@ -10104,7 +10116,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12">
       <c r="A167" s="1">
         <v>42564</v>
       </c>
@@ -10142,7 +10154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" ht="180" hidden="1">
       <c r="A168" s="1">
         <v>42562</v>
       </c>
@@ -10180,7 +10192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="48">
       <c r="A169" s="1">
         <v>42559</v>
       </c>
@@ -10218,7 +10230,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12">
       <c r="A170" s="1">
         <v>42557</v>
       </c>
@@ -10256,7 +10268,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" ht="120" hidden="1">
       <c r="A171" s="1">
         <v>42556</v>
       </c>
@@ -10294,7 +10306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" hidden="1">
       <c r="A172" s="1">
         <v>42556</v>
       </c>
@@ -10332,7 +10344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="120">
       <c r="A173" s="1">
         <v>42550</v>
       </c>
@@ -10370,7 +10382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" ht="120" hidden="1">
       <c r="A174" s="1">
         <v>42550</v>
       </c>
@@ -10408,7 +10420,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" ht="48" hidden="1">
       <c r="A175" s="1">
         <v>42549</v>
       </c>
@@ -10446,7 +10458,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="204" hidden="1">
       <c r="A176" s="1">
         <v>42543</v>
       </c>
@@ -10484,7 +10496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" hidden="1">
       <c r="A177" s="1">
         <v>42536</v>
       </c>
@@ -10522,7 +10534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" hidden="1">
       <c r="A178" s="1">
         <v>42536</v>
       </c>
@@ -10560,7 +10572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="36" hidden="1">
       <c r="A179" s="1">
         <v>42535</v>
       </c>
@@ -10598,7 +10610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="408" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="120" hidden="1">
       <c r="A180" s="1">
         <v>42528</v>
       </c>
@@ -10636,7 +10648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="36" hidden="1">
       <c r="A181" s="1">
         <v>42528</v>
       </c>
@@ -10674,7 +10686,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="72" hidden="1">
       <c r="A182" s="1">
         <v>42527</v>
       </c>
@@ -10712,7 +10724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" ht="48" hidden="1">
       <c r="A183" s="1">
         <v>42522</v>
       </c>
@@ -10750,7 +10762,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" hidden="1">
       <c r="A184" s="1">
         <v>42515</v>
       </c>
@@ -10788,7 +10800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" ht="60" hidden="1">
       <c r="A185" s="1">
         <v>42507</v>
       </c>
@@ -10826,7 +10838,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" ht="72" hidden="1">
       <c r="A186" s="1">
         <v>42506</v>
       </c>
@@ -10864,7 +10876,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="408" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" ht="120" hidden="1">
       <c r="A187" s="1">
         <v>42504</v>
       </c>
@@ -10902,7 +10914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" ht="348" hidden="1">
       <c r="A188" s="1">
         <v>42501</v>
       </c>
@@ -10940,7 +10952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" ht="132" hidden="1">
       <c r="A189" s="1">
         <v>42500</v>
       </c>
@@ -10978,7 +10990,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" ht="48">
       <c r="A190" s="1">
         <v>42499</v>
       </c>
@@ -11016,7 +11028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" ht="36" hidden="1">
       <c r="A191" s="1">
         <v>42499</v>
       </c>
@@ -11054,7 +11066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" ht="156" hidden="1">
       <c r="A192" s="1">
         <v>42496</v>
       </c>
@@ -11092,7 +11104,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" hidden="1">
       <c r="A193" s="1">
         <v>42496</v>
       </c>
@@ -11130,7 +11142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" ht="84" hidden="1">
       <c r="A194" s="1">
         <v>42493</v>
       </c>
@@ -11168,7 +11180,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" ht="84" hidden="1">
       <c r="A195" s="1">
         <v>42493</v>
       </c>
@@ -11206,7 +11218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" ht="36" hidden="1">
       <c r="A196" s="1">
         <v>42493</v>
       </c>
@@ -11244,7 +11256,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" ht="36" hidden="1">
       <c r="A197" s="1">
         <v>42492</v>
       </c>
@@ -11282,7 +11294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" ht="132" hidden="1">
       <c r="A198" s="1">
         <v>42489</v>
       </c>
@@ -11320,7 +11332,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" ht="60" hidden="1">
       <c r="A199" s="1">
         <v>42487</v>
       </c>
@@ -11358,7 +11370,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" ht="36" hidden="1">
       <c r="A200" s="1">
         <v>42487</v>
       </c>
@@ -11396,7 +11408,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" ht="108" hidden="1">
       <c r="A201" s="1">
         <v>42486</v>
       </c>
@@ -11434,7 +11446,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" ht="156" hidden="1">
       <c r="A202" s="1">
         <v>42485</v>
       </c>
@@ -11472,7 +11484,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" ht="72" hidden="1">
       <c r="A203" s="1">
         <v>42483</v>
       </c>
@@ -11510,7 +11522,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" ht="84" hidden="1">
       <c r="A204" s="1">
         <v>42479</v>
       </c>
@@ -11548,7 +11560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" ht="36" hidden="1">
       <c r="A205" s="1">
         <v>42478</v>
       </c>
@@ -11586,7 +11598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="156">
       <c r="A206" s="1">
         <v>42476</v>
       </c>
@@ -11624,7 +11636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" ht="180" hidden="1">
       <c r="A207" s="1">
         <v>42475</v>
       </c>
@@ -11662,7 +11674,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" ht="36" hidden="1">
       <c r="A208" s="1">
         <v>42475</v>
       </c>
@@ -11700,7 +11712,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" ht="84" hidden="1">
       <c r="A209" s="1">
         <v>42473</v>
       </c>
@@ -11738,7 +11750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" ht="48" hidden="1">
       <c r="A210" s="1">
         <v>42472</v>
       </c>
@@ -11776,7 +11788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" ht="288" hidden="1">
       <c r="A211" s="1">
         <v>42471</v>
       </c>
@@ -11814,7 +11826,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" ht="180" hidden="1">
       <c r="A212" s="1">
         <v>42468</v>
       </c>
@@ -11852,7 +11864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" ht="36" hidden="1">
       <c r="A213" s="1">
         <v>42468</v>
       </c>
@@ -11890,7 +11902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" ht="216" hidden="1">
       <c r="A214" s="1">
         <v>42466</v>
       </c>
@@ -11928,7 +11940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" ht="276" hidden="1">
       <c r="A215" s="1">
         <v>42464</v>
       </c>
@@ -11966,7 +11978,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" ht="60">
       <c r="A216" s="1">
         <v>42461</v>
       </c>
@@ -12004,7 +12016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" ht="108">
       <c r="A217" s="1">
         <v>42457</v>
       </c>
@@ -12042,7 +12054,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" ht="108" hidden="1">
       <c r="A218" s="1">
         <v>42452</v>
       </c>
@@ -12080,7 +12092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" ht="168" hidden="1">
       <c r="A219" s="1">
         <v>42451</v>
       </c>
@@ -12118,7 +12130,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" ht="48" hidden="1">
       <c r="A220" s="1">
         <v>42445</v>
       </c>
@@ -12156,7 +12168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" ht="48" hidden="1">
       <c r="A221" s="1">
         <v>42444</v>
       </c>
@@ -12194,7 +12206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" ht="96" hidden="1">
       <c r="A222" s="1">
         <v>42437</v>
       </c>
@@ -12232,7 +12244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" ht="60" hidden="1">
       <c r="A223" s="1">
         <v>42437</v>
       </c>
@@ -12270,7 +12282,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" ht="48">
       <c r="A224" s="1">
         <v>42431</v>
       </c>
@@ -12308,7 +12320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" ht="48" hidden="1">
       <c r="A225" s="1">
         <v>42430</v>
       </c>
@@ -12346,7 +12358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" ht="48" hidden="1">
       <c r="A226" s="1">
         <v>42430</v>
       </c>
@@ -12384,7 +12396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" ht="48" hidden="1">
       <c r="A227" s="1">
         <v>42430</v>
       </c>
@@ -12422,7 +12434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" ht="48" hidden="1">
       <c r="A228" s="1">
         <v>42429</v>
       </c>
@@ -12460,7 +12472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" ht="132">
       <c r="A229" s="1">
         <v>42426</v>
       </c>
@@ -12498,7 +12510,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" ht="120">
       <c r="A230" s="1">
         <v>42426</v>
       </c>
@@ -12536,7 +12548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" ht="60" hidden="1">
       <c r="A231" s="1">
         <v>42424</v>
       </c>
@@ -12574,7 +12586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" ht="108">
       <c r="A232" s="1">
         <v>42424</v>
       </c>
@@ -12612,7 +12624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" ht="48" hidden="1">
       <c r="A233" s="1">
         <v>42423</v>
       </c>
@@ -12650,7 +12662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" ht="192" hidden="1">
       <c r="A234" s="1">
         <v>42422</v>
       </c>
@@ -12688,7 +12700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" ht="228" hidden="1">
       <c r="A235" s="1">
         <v>42419</v>
       </c>
@@ -12726,7 +12738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" ht="120" hidden="1">
       <c r="A236" s="1">
         <v>42417</v>
       </c>
@@ -12764,7 +12776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" ht="216">
       <c r="A237" s="1">
         <v>42416</v>
       </c>
@@ -12802,7 +12814,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" ht="408" hidden="1">
       <c r="A238" s="1">
         <v>42415</v>
       </c>
@@ -12840,7 +12852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" ht="72" hidden="1">
       <c r="A239" s="1">
         <v>42408</v>
       </c>
@@ -12878,7 +12890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" ht="108">
       <c r="A240" s="1">
         <v>42405</v>
       </c>
@@ -12916,7 +12928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" ht="168" hidden="1">
       <c r="A241" s="1">
         <v>42403</v>
       </c>
@@ -12954,7 +12966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="408" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" ht="168" hidden="1">
       <c r="A242" s="1">
         <v>42402</v>
       </c>
@@ -12992,7 +13004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" ht="96">
       <c r="A243" s="1">
         <v>42401</v>
       </c>
@@ -13030,7 +13042,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" ht="96" hidden="1">
       <c r="A244" s="1">
         <v>42401</v>
       </c>
@@ -13068,7 +13080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="293.25" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" ht="156" hidden="1">
       <c r="A245" s="1">
         <v>42398</v>
       </c>
@@ -13106,7 +13118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" ht="276" hidden="1">
       <c r="A246" s="1">
         <v>42396</v>
       </c>
@@ -13144,7 +13156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" ht="144" hidden="1">
       <c r="A247" s="1">
         <v>42395</v>
       </c>
@@ -13182,7 +13194,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" ht="84" hidden="1">
       <c r="A248" s="1">
         <v>42394</v>
       </c>
@@ -13220,7 +13232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" ht="48" hidden="1">
       <c r="A249" s="1">
         <v>42391</v>
       </c>
@@ -13258,7 +13270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" ht="84" hidden="1">
       <c r="A250" s="1">
         <v>42391</v>
       </c>
@@ -13296,7 +13308,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" ht="60">
       <c r="A251" s="1">
         <v>42389</v>
       </c>
@@ -13334,7 +13346,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" ht="48">
       <c r="A252" s="1">
         <v>42389</v>
       </c>
@@ -13372,7 +13384,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" ht="108">
       <c r="A253" s="1">
         <v>42387</v>
       </c>
@@ -13410,7 +13422,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" ht="48" hidden="1">
       <c r="A254" s="1">
         <v>42384</v>
       </c>
@@ -13448,7 +13460,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" ht="192" hidden="1">
       <c r="A255" s="1">
         <v>42382</v>
       </c>
@@ -13486,7 +13498,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" ht="288">
       <c r="A256" s="1">
         <v>42380</v>
       </c>
@@ -13524,7 +13536,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="395.25" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" ht="156" hidden="1">
       <c r="A257" s="1">
         <v>42380</v>
       </c>
@@ -13563,7 +13575,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L257">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="AMRAP - Reps"/>
+        <filter val="AMRAP - Rounds"/>
+        <filter val="AMRAP - Rounds and Reps"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="1.8" right="1.8" top="1.9" bottom="1.9" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>